--- a/Document/IDEA.xlsx
+++ b/Document/IDEA.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feature_List" sheetId="1" r:id="rId1"/>
     <sheet name="Technology" sheetId="2" r:id="rId2"/>
     <sheet name="Delivery-Planning" sheetId="3" r:id="rId3"/>
     <sheet name="Progress" sheetId="4" r:id="rId4"/>
+    <sheet name="new feature to be discuss" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>Front End</t>
   </si>
@@ -355,6 +356,30 @@
   </si>
   <si>
     <t xml:space="preserve">Reconciliation of the payment details automatically (instantly, daily, weekly and monthly) </t>
+  </si>
+  <si>
+    <t>Google map intergration  for adress while registration (sign up) and home page of particular society  with flag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route map of that society to connect all major part of that city </t>
+  </si>
+  <si>
+    <t>List of place to shop and visit</t>
+  </si>
+  <si>
+    <t>route map of Web site office in contact us menu.</t>
+  </si>
+  <si>
+    <t>Contact list of all major hotels near by society</t>
+  </si>
+  <si>
+    <t>Contact list of all major hospital near by society</t>
+  </si>
+  <si>
+    <t>Emergency nos of ambulance, police station,fire and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search contact no </t>
   </si>
 </sst>
 </file>
@@ -867,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1659,4 +1684,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/IDEA.xlsx
+++ b/Document/IDEA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feature_List" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Delivery-Planning" sheetId="3" r:id="rId3"/>
     <sheet name="Progress" sheetId="4" r:id="rId4"/>
     <sheet name="new feature to be discuss" sheetId="5" r:id="rId5"/>
+    <sheet name="reference" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>Front End</t>
   </si>
@@ -380,6 +381,18 @@
   </si>
   <si>
     <t xml:space="preserve">search contact no </t>
+  </si>
+  <si>
+    <t>https://www.apnacomplex.com/</t>
+  </si>
+  <si>
+    <t>http://www.apartmentadda.com</t>
+  </si>
+  <si>
+    <t>www.commonfloor.com</t>
+  </si>
+  <si>
+    <t>https://www.residentsinc.com/</t>
   </si>
 </sst>
 </file>
@@ -551,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -587,6 +600,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1690,7 +1706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1751,4 +1767,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/Document/IDEA.xlsx
+++ b/Document/IDEA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feature_List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>Front End</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>https://www.residentsinc.com/</t>
+  </si>
+  <si>
+    <t>interior designer contact,other conatct list which help to customer</t>
+  </si>
+  <si>
+    <t>Accounting Tools: Maintenance Charge Tracking, Income/Expense Tracking, Budget Variance, General Ledger &amp; Flat-wise Ledgers, Bank Account Reconciliation, Billing of Metered Utilities, Trial Balance, Instant Balance Sheet, Income-Expenditure Sheet
+Management Tools: Enforce acceptance of Bye-laws, Complaint Tracking, Residents Directory, Committee/Staff/Vendor Directory, Parking Lot Management, To Do Lists, Facility Reservation System, Asset Register, Visitor Tracking
+Communication Tools: Notice board with SMS/Email integration, Discussion Board, Secure Message Box, Email/SMS to one/more members , Document repository, Home Page for your complex
+Reporting Tools: Financial Reports such as Balance Sheet, Income-Expenditure Sheet, Trial Balance, Reports of residents and members, service staff, complaint box, parking lots and more than 100+ reports</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,6 +1773,16 @@
         <v>119</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1773,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
